--- a/Project-KTXForecasting/Result/Forecasting_1DLag12_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_1DLag12_경전선.xlsx
@@ -476,25 +476,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>49648247549.93978</v>
+        <v>49360806827.81641</v>
       </c>
       <c r="C2">
-        <v>222818.8671318921</v>
+        <v>222172.9210048254</v>
       </c>
       <c r="D2">
-        <v>0.02565981706621973</v>
+        <v>0.02553980504267054</v>
       </c>
       <c r="E2">
-        <v>88074.93229166667</v>
+        <v>88015.5625</v>
       </c>
       <c r="F2">
-        <v>0.08011489396811977</v>
+        <v>0.08019731375846498</v>
       </c>
       <c r="G2">
-        <v>23969.71875</v>
+        <v>24948</v>
       </c>
       <c r="H2">
-        <v>0.03639427263497824</v>
+        <v>0.03784932196262207</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -796,7 +796,7 @@
         <v>688648</v>
       </c>
       <c r="D2">
-        <v>737311.8125</v>
+        <v>738030</v>
       </c>
       <c r="E2">
         <v>736484.0625</v>
@@ -837,7 +837,7 @@
         <v>1432442</v>
       </c>
       <c r="D3">
-        <v>667666</v>
+        <v>670005.375</v>
       </c>
       <c r="E3">
         <v>701859.25</v>
@@ -878,7 +878,7 @@
         <v>668339</v>
       </c>
       <c r="D4">
-        <v>675628.3125</v>
+        <v>675457.5625</v>
       </c>
       <c r="E4">
         <v>678896.3125</v>
@@ -919,7 +919,7 @@
         <v>651454</v>
       </c>
       <c r="D5">
-        <v>672458.3125</v>
+        <v>674113.5</v>
       </c>
       <c r="E5">
         <v>683958.5</v>
@@ -960,7 +960,7 @@
         <v>669451</v>
       </c>
       <c r="D6">
-        <v>645442.875</v>
+        <v>643231.6875</v>
       </c>
       <c r="E6">
         <v>683603</v>
@@ -1001,7 +1001,7 @@
         <v>648086</v>
       </c>
       <c r="D7">
-        <v>624154.6875</v>
+        <v>624409.3125</v>
       </c>
       <c r="E7">
         <v>707643.25</v>
@@ -1042,7 +1042,7 @@
         <v>716861</v>
       </c>
       <c r="D8">
-        <v>655496.0625</v>
+        <v>656369.125</v>
       </c>
       <c r="E8">
         <v>732002.1875</v>
@@ -1083,7 +1083,7 @@
         <v>688137</v>
       </c>
       <c r="D9">
-        <v>690978.875</v>
+        <v>691726.625</v>
       </c>
       <c r="E9">
         <v>740693.75</v>
@@ -1124,7 +1124,7 @@
         <v>714043</v>
       </c>
       <c r="D10">
-        <v>676506.25</v>
+        <v>675615.5</v>
       </c>
       <c r="E10">
         <v>739158.75</v>
@@ -1165,7 +1165,7 @@
         <v>644503</v>
       </c>
       <c r="D11">
-        <v>679591.5</v>
+        <v>679755.375</v>
       </c>
       <c r="E11">
         <v>724497.875</v>
@@ -1206,7 +1206,7 @@
         <v>679183</v>
       </c>
       <c r="D12">
-        <v>696526.4375</v>
+        <v>695396</v>
       </c>
       <c r="E12">
         <v>721966.1875</v>
@@ -1247,7 +1247,7 @@
         <v>701690</v>
       </c>
       <c r="D13">
-        <v>714740.8125</v>
+        <v>712409.6875</v>
       </c>
       <c r="E13">
         <v>749454.125</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>724754.8125</v>
+        <v>723745.9375</v>
       </c>
       <c r="E14">
         <v>783607.125</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>723091.1875</v>
+        <v>718002.1875</v>
       </c>
       <c r="E15">
         <v>798869.5</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>766468.5</v>
+        <v>766570.75</v>
       </c>
       <c r="E16">
         <v>791261</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>768159.625</v>
+        <v>767191.375</v>
       </c>
       <c r="E17">
         <v>781742.25</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>750329.6875</v>
+        <v>750518.25</v>
       </c>
       <c r="E18">
         <v>771656.5</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>777340</v>
+        <v>776718</v>
       </c>
       <c r="E19">
         <v>791282.8125</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>750019.5625</v>
+        <v>747983.8125</v>
       </c>
       <c r="E20">
         <v>821463.875</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>740735.625</v>
+        <v>738626.9375</v>
       </c>
       <c r="E21">
         <v>843247.75</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>772316.8125</v>
+        <v>768005.0625</v>
       </c>
       <c r="E22">
         <v>847031.75</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>831392.25</v>
+        <v>831625.1875</v>
       </c>
       <c r="E23">
         <v>853233.875</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>847171.8125</v>
+        <v>842690.6875</v>
       </c>
       <c r="E24">
         <v>867088.8125</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>864536.75</v>
+        <v>864690.625</v>
       </c>
       <c r="E25">
         <v>896171.375</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>856859.8125</v>
+        <v>854450.1875</v>
       </c>
       <c r="E26">
         <v>905652.4375</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>854578.75</v>
+        <v>850251.875</v>
       </c>
       <c r="E27">
         <v>909658.5</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>883197.375</v>
+        <v>877478.9375</v>
       </c>
       <c r="E28">
         <v>929042.5</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>878735.75</v>
+        <v>875130.25</v>
       </c>
       <c r="E29">
         <v>907766.1875</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>867893.25</v>
+        <v>866010.125</v>
       </c>
       <c r="E30">
         <v>918895.75</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>886187.625</v>
+        <v>883432.75</v>
       </c>
       <c r="E31">
         <v>933487.75</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>863670.5625</v>
+        <v>862572.3125</v>
       </c>
       <c r="E32">
         <v>927315.625</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>866848.25</v>
+        <v>864246.625</v>
       </c>
       <c r="E33">
         <v>914967.4375</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>890136.125</v>
+        <v>890622.1875</v>
       </c>
       <c r="E34">
         <v>940858.875</v>
@@ -2257,25 +2257,25 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>9450104174.476725</v>
+        <v>9522931668.86849</v>
       </c>
       <c r="C5">
-        <v>97211.64629033254</v>
+        <v>97585.50952302545</v>
       </c>
       <c r="D5">
-        <v>0.02692229898104488</v>
+        <v>0.02686249131387608</v>
       </c>
       <c r="E5">
-        <v>51425.734375</v>
+        <v>50659.078125</v>
       </c>
       <c r="F5">
-        <v>0.1100596197265197</v>
+        <v>0.107760195440811</v>
       </c>
       <c r="G5">
-        <v>35657.96875</v>
+        <v>34740.984375</v>
       </c>
       <c r="H5">
-        <v>0.09045981902236801</v>
+        <v>0.08910915405455372</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2508,7 +2508,7 @@
         <v>365628.8125</v>
       </c>
       <c r="G2">
-        <v>352596.78125</v>
+        <v>353357.90625</v>
       </c>
       <c r="H2">
         <v>384402.59375</v>
@@ -2549,7 +2549,7 @@
         <v>359793.28125</v>
       </c>
       <c r="G3">
-        <v>354156.125</v>
+        <v>351912.90625</v>
       </c>
       <c r="H3">
         <v>344449.59375</v>
@@ -2590,7 +2590,7 @@
         <v>366961.09375</v>
       </c>
       <c r="G4">
-        <v>364837.65625</v>
+        <v>363818.125</v>
       </c>
       <c r="H4">
         <v>342959.625</v>
@@ -2631,7 +2631,7 @@
         <v>348469.71875</v>
       </c>
       <c r="G5">
-        <v>325785.28125</v>
+        <v>326858.125</v>
       </c>
       <c r="H5">
         <v>357178.59375</v>
@@ -2672,7 +2672,7 @@
         <v>338880.125</v>
       </c>
       <c r="G6">
-        <v>323228.3125</v>
+        <v>323108.375</v>
       </c>
       <c r="H6">
         <v>255611.34375</v>
@@ -2713,7 +2713,7 @@
         <v>357670.3125</v>
       </c>
       <c r="G7">
-        <v>348310.28125</v>
+        <v>346595.6875</v>
       </c>
       <c r="H7">
         <v>317742.25</v>
@@ -2754,7 +2754,7 @@
         <v>377411.75</v>
       </c>
       <c r="G8">
-        <v>356219.25</v>
+        <v>356742.03125</v>
       </c>
       <c r="H8">
         <v>317906.3125</v>
@@ -2795,7 +2795,7 @@
         <v>387737.78125</v>
       </c>
       <c r="G9">
-        <v>365067.9375</v>
+        <v>362898.5</v>
       </c>
       <c r="H9">
         <v>338618.375</v>
@@ -2836,7 +2836,7 @@
         <v>394494.6875</v>
       </c>
       <c r="G10">
-        <v>371183</v>
+        <v>371485.1875</v>
       </c>
       <c r="H10">
         <v>332288.84375</v>
@@ -2877,7 +2877,7 @@
         <v>380981.25</v>
       </c>
       <c r="G11">
-        <v>365222.46875</v>
+        <v>364976.1875</v>
       </c>
       <c r="H11">
         <v>289044.15625</v>
@@ -2918,7 +2918,7 @@
         <v>372280.28125</v>
       </c>
       <c r="G12">
-        <v>357920.9375</v>
+        <v>357892.96875</v>
       </c>
       <c r="H12">
         <v>283961.96875</v>
@@ -2959,7 +2959,7 @@
         <v>392166.59375</v>
       </c>
       <c r="G13">
-        <v>371802.34375</v>
+        <v>375288.75</v>
       </c>
       <c r="H13">
         <v>360910.3125</v>
@@ -3000,7 +3000,7 @@
         <v>397983.21875</v>
       </c>
       <c r="G14">
-        <v>381966.3125</v>
+        <v>380869.375</v>
       </c>
       <c r="H14">
         <v>359387.75</v>
@@ -3041,7 +3041,7 @@
         <v>419213.5625</v>
       </c>
       <c r="G15">
-        <v>396734.84375</v>
+        <v>396118.65625</v>
       </c>
       <c r="H15">
         <v>331632.375</v>
@@ -3082,7 +3082,7 @@
         <v>425513.40625</v>
       </c>
       <c r="G16">
-        <v>415883.4375</v>
+        <v>414042.75</v>
       </c>
       <c r="H16">
         <v>336933.28125</v>
@@ -3123,7 +3123,7 @@
         <v>412672.65625</v>
       </c>
       <c r="G17">
-        <v>404837.4375</v>
+        <v>400874.5625</v>
       </c>
       <c r="H17">
         <v>337577.40625</v>
@@ -3164,7 +3164,7 @@
         <v>405053</v>
       </c>
       <c r="G18">
-        <v>388401.25</v>
+        <v>386011.0625</v>
       </c>
       <c r="H18">
         <v>309214.4375</v>
@@ -3205,7 +3205,7 @@
         <v>415028.03125</v>
       </c>
       <c r="G19">
-        <v>394598.90625</v>
+        <v>396621.28125</v>
       </c>
       <c r="H19">
         <v>353592.46875</v>
@@ -3246,7 +3246,7 @@
         <v>426171.78125</v>
       </c>
       <c r="G20">
-        <v>389777.5</v>
+        <v>391674.625</v>
       </c>
       <c r="H20">
         <v>323158.25</v>
@@ -3287,7 +3287,7 @@
         <v>445933.40625</v>
       </c>
       <c r="G21">
-        <v>409512.6875</v>
+        <v>407986.1875</v>
       </c>
       <c r="H21">
         <v>314279.09375</v>
@@ -3328,7 +3328,7 @@
         <v>457654.5625</v>
       </c>
       <c r="G22">
-        <v>443418.46875</v>
+        <v>444112.5625</v>
       </c>
       <c r="H22">
         <v>368828.59375</v>
@@ -3369,7 +3369,7 @@
         <v>449305.125</v>
       </c>
       <c r="G23">
-        <v>424267.1875</v>
+        <v>421835.6875</v>
       </c>
       <c r="H23">
         <v>391032.21875</v>
@@ -3410,7 +3410,7 @@
         <v>453446.28125</v>
       </c>
       <c r="G24">
-        <v>434545.53125</v>
+        <v>432454.0625</v>
       </c>
       <c r="H24">
         <v>428459.03125</v>
@@ -3451,7 +3451,7 @@
         <v>458085.8125</v>
       </c>
       <c r="G25">
-        <v>441931.25</v>
+        <v>442756.53125</v>
       </c>
       <c r="H25">
         <v>499270.78125</v>
@@ -3492,7 +3492,7 @@
         <v>467337.125</v>
       </c>
       <c r="G26">
-        <v>439374.09375</v>
+        <v>437822.6875</v>
       </c>
       <c r="H26">
         <v>477049.0625</v>
@@ -3533,7 +3533,7 @@
         <v>483639.34375</v>
       </c>
       <c r="G27">
-        <v>464694.78125</v>
+        <v>464664.875</v>
       </c>
       <c r="H27">
         <v>421834.46875</v>
@@ -3574,7 +3574,7 @@
         <v>483007.375</v>
       </c>
       <c r="G28">
-        <v>453010.96875</v>
+        <v>453065.15625</v>
       </c>
       <c r="H28">
         <v>470745.40625</v>
@@ -3615,7 +3615,7 @@
         <v>475186.0625</v>
       </c>
       <c r="G29">
-        <v>446725.90625</v>
+        <v>445580.125</v>
       </c>
       <c r="H29">
         <v>489286.25</v>
@@ -3656,7 +3656,7 @@
         <v>481966.34375</v>
       </c>
       <c r="G30">
-        <v>450955.71875</v>
+        <v>450669.21875</v>
       </c>
       <c r="H30">
         <v>493845.4375</v>
@@ -3697,7 +3697,7 @@
         <v>483679.21875</v>
       </c>
       <c r="G31">
-        <v>448443.46875</v>
+        <v>447037</v>
       </c>
       <c r="H31">
         <v>496461.4375</v>
@@ -3738,7 +3738,7 @@
         <v>491309.96875</v>
       </c>
       <c r="G32">
-        <v>448143.71875</v>
+        <v>447617.09375</v>
       </c>
       <c r="H32">
         <v>500433.6875</v>
@@ -3779,7 +3779,7 @@
         <v>489890.03125</v>
       </c>
       <c r="G33">
-        <v>446493.8125</v>
+        <v>445002.0625</v>
       </c>
       <c r="H33">
         <v>457067.5625</v>
@@ -3820,7 +3820,7 @@
         <v>499760.78125</v>
       </c>
       <c r="G34">
-        <v>449412.78125</v>
+        <v>448049.34375</v>
       </c>
       <c r="H34">
         <v>499325.4375</v>
@@ -3960,25 +3960,25 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>17041758962.46354</v>
+        <v>17297917651.66829</v>
       </c>
       <c r="C5">
-        <v>130544.0881942324</v>
+        <v>131521.5482408426</v>
       </c>
       <c r="D5">
-        <v>0.03733024056698459</v>
+        <v>0.03713387108180125</v>
       </c>
       <c r="E5">
-        <v>61000.25520833334</v>
+        <v>60225.83854166666</v>
       </c>
       <c r="F5">
-        <v>0.1253871221677864</v>
+        <v>0.1220302534342427</v>
       </c>
       <c r="G5">
-        <v>25306.984375</v>
+        <v>26046.296875</v>
       </c>
       <c r="H5">
-        <v>0.07682482578599037</v>
+        <v>0.07885793713646461</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4211,7 +4211,7 @@
         <v>314319.53125</v>
       </c>
       <c r="G2">
-        <v>340185.28125</v>
+        <v>339005.84375</v>
       </c>
       <c r="H2">
         <v>354689.53125</v>
@@ -4252,7 +4252,7 @@
         <v>300773.25</v>
       </c>
       <c r="G3">
-        <v>318991.78125</v>
+        <v>314685.875</v>
       </c>
       <c r="H3">
         <v>336339.15625</v>
@@ -4293,7 +4293,7 @@
         <v>301343.21875</v>
       </c>
       <c r="G4">
-        <v>318344.65625</v>
+        <v>321012.71875</v>
       </c>
       <c r="H4">
         <v>291637.3125</v>
@@ -4334,7 +4334,7 @@
         <v>299792.25</v>
       </c>
       <c r="G5">
-        <v>334172.8125</v>
+        <v>334356.28125</v>
       </c>
       <c r="H5">
         <v>285341.90625</v>
@@ -4375,7 +4375,7 @@
         <v>307765.21875</v>
       </c>
       <c r="G6">
-        <v>326349</v>
+        <v>324581.3125</v>
       </c>
       <c r="H6">
         <v>324633.3125</v>
@@ -4416,7 +4416,7 @@
         <v>291180.21875</v>
       </c>
       <c r="G7">
-        <v>314599.96875</v>
+        <v>309687.4375</v>
       </c>
       <c r="H7">
         <v>276361.5625</v>
@@ -4457,7 +4457,7 @@
         <v>310272.1875</v>
       </c>
       <c r="G8">
-        <v>310041.09375</v>
+        <v>309574.125</v>
       </c>
       <c r="H8">
         <v>322762</v>
@@ -4498,7 +4498,7 @@
         <v>310358.75</v>
       </c>
       <c r="G9">
-        <v>330171.1875</v>
+        <v>329653.9375</v>
       </c>
       <c r="H9">
         <v>364908.125</v>
@@ -4539,7 +4539,7 @@
         <v>294955.8125</v>
       </c>
       <c r="G10">
-        <v>330800.96875</v>
+        <v>330511.90625</v>
       </c>
       <c r="H10">
         <v>344124.75</v>
@@ -4580,7 +4580,7 @@
         <v>292647.75</v>
       </c>
       <c r="G11">
-        <v>329026.78125</v>
+        <v>329628.875</v>
       </c>
       <c r="H11">
         <v>279346.0625</v>
@@ -4621,7 +4621,7 @@
         <v>295715</v>
       </c>
       <c r="G12">
-        <v>340570.5</v>
+        <v>341352.375</v>
       </c>
       <c r="H12">
         <v>246086.71875</v>
@@ -4662,7 +4662,7 @@
         <v>285397.78125</v>
       </c>
       <c r="G13">
-        <v>343498.03125</v>
+        <v>337396.8125</v>
       </c>
       <c r="H13">
         <v>294637.8125</v>
@@ -4703,7 +4703,7 @@
         <v>297456.1875</v>
       </c>
       <c r="G14">
-        <v>341080.375</v>
+        <v>337948.21875</v>
       </c>
       <c r="H14">
         <v>328888.875</v>
@@ -4744,7 +4744,7 @@
         <v>302813.6875</v>
       </c>
       <c r="G15">
-        <v>348779.25</v>
+        <v>347898.3125</v>
       </c>
       <c r="H15">
         <v>311744.6875</v>
@@ -4785,7 +4785,7 @@
         <v>328904.4375</v>
       </c>
       <c r="G16">
-        <v>358948.3125</v>
+        <v>356932.8125</v>
       </c>
       <c r="H16">
         <v>293499.28125</v>
@@ -4826,7 +4826,7 @@
         <v>360897</v>
       </c>
       <c r="G17">
-        <v>367028.8125</v>
+        <v>369872.625</v>
       </c>
       <c r="H17">
         <v>260511.125</v>
@@ -4867,7 +4867,7 @@
         <v>370297.53125</v>
       </c>
       <c r="G18">
-        <v>375748.90625</v>
+        <v>379462.84375</v>
       </c>
       <c r="H18">
         <v>269230.4375</v>
@@ -4908,7 +4908,7 @@
         <v>329995.21875</v>
       </c>
       <c r="G19">
-        <v>374749.46875</v>
+        <v>374999.75</v>
       </c>
       <c r="H19">
         <v>242975.640625</v>
@@ -4949,7 +4949,7 @@
         <v>306628.1875</v>
       </c>
       <c r="G20">
-        <v>362553.6875</v>
+        <v>357473.84375</v>
       </c>
       <c r="H20">
         <v>322710.78125</v>
@@ -4990,7 +4990,7 @@
         <v>274856.875</v>
       </c>
       <c r="G21">
-        <v>359067.1875</v>
+        <v>355181.4375</v>
       </c>
       <c r="H21">
         <v>350332.59375</v>
@@ -5031,7 +5031,7 @@
         <v>318082.3125</v>
       </c>
       <c r="G22">
-        <v>368949.375</v>
+        <v>364847.46875</v>
       </c>
       <c r="H22">
         <v>284237.3125</v>
@@ -5072,7 +5072,7 @@
         <v>354243.71875</v>
       </c>
       <c r="G23">
-        <v>377931.1875</v>
+        <v>377517.84375</v>
       </c>
       <c r="H23">
         <v>370328.3125</v>
@@ -5113,7 +5113,7 @@
         <v>377107.5625</v>
       </c>
       <c r="G24">
-        <v>410262.84375</v>
+        <v>405945.5</v>
       </c>
       <c r="H24">
         <v>279400.90625</v>
@@ -5154,7 +5154,7 @@
         <v>423915.0625</v>
       </c>
       <c r="G25">
-        <v>404286.1875</v>
+        <v>399596.625</v>
       </c>
       <c r="H25">
         <v>336891.8125</v>
@@ -5195,7 +5195,7 @@
         <v>387078</v>
       </c>
       <c r="G26">
-        <v>397806.9375</v>
+        <v>398267.96875</v>
       </c>
       <c r="H26">
         <v>306474.78125</v>
@@ -5236,7 +5236,7 @@
         <v>465927.09375</v>
       </c>
       <c r="G27">
-        <v>413490.09375</v>
+        <v>413766.21875</v>
       </c>
       <c r="H27">
         <v>328651.8125</v>
@@ -5277,7 +5277,7 @@
         <v>420928.46875</v>
       </c>
       <c r="G28">
-        <v>408103.34375</v>
+        <v>407177.46875</v>
       </c>
       <c r="H28">
         <v>327193.3125</v>
@@ -5318,7 +5318,7 @@
         <v>424950.90625</v>
       </c>
       <c r="G29">
-        <v>414509.46875</v>
+        <v>411001.0625</v>
       </c>
       <c r="H29">
         <v>289683.03125</v>
@@ -5359,7 +5359,7 @@
         <v>453750.5</v>
       </c>
       <c r="G30">
-        <v>411147.90625</v>
+        <v>409701.375</v>
       </c>
       <c r="H30">
         <v>428094.21875</v>
@@ -5400,7 +5400,7 @@
         <v>458716.34375</v>
       </c>
       <c r="G31">
-        <v>412511.6875</v>
+        <v>412416.65625</v>
       </c>
       <c r="H31">
         <v>365993.1875</v>
@@ -5441,7 +5441,7 @@
         <v>460115.84375</v>
       </c>
       <c r="G32">
-        <v>413618.0625</v>
+        <v>411410.09375</v>
       </c>
       <c r="H32">
         <v>361133.65625</v>
@@ -5482,7 +5482,7 @@
         <v>429954.28125</v>
       </c>
       <c r="G33">
-        <v>409657.125</v>
+        <v>410347.9375</v>
       </c>
       <c r="H33">
         <v>307600.625</v>
@@ -5523,7 +5523,7 @@
         <v>453721.21875</v>
       </c>
       <c r="G34">
-        <v>412279.875</v>
+        <v>411914.09375</v>
       </c>
       <c r="H34">
         <v>310100.78125</v>
